--- a/llm_app_excel/output.xlsx
+++ b/llm_app_excel/output.xlsx
@@ -75,13 +75,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -98,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,20 +127,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -447,91 +466,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="31.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>12456187265241</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>19636187265333</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>15584162584265</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
